--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>classes</t>
   </si>
@@ -24,15 +24,9 @@
     <t>class name</t>
   </si>
   <si>
-    <t>teacher name</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
-    <t>age of childern</t>
-  </si>
-  <si>
     <t>class start time</t>
   </si>
   <si>
@@ -69,41 +63,134 @@
     <t>intsgram</t>
   </si>
   <si>
-    <t>class</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>relation to childern</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>appointment</t>
+  </si>
+  <si>
+    <t>primary key,$table-&gt;id();</t>
+  </si>
+  <si>
+    <t>$table-&gt;string('className,100');</t>
+  </si>
+  <si>
+    <t>teacher_id</t>
+  </si>
+  <si>
+    <t>birth date</t>
+  </si>
+  <si>
+    <t>$table-&gt;date('birthDate');</t>
+  </si>
+  <si>
+    <t>$table-&gt;decimal('price', 8, 2);</t>
+  </si>
+  <si>
+    <t>$table-&gt;dateTime('classStartTime');</t>
+  </si>
+  <si>
+    <t>$table-&gt;unsignedInteger('capacity');</t>
+  </si>
+  <si>
+    <t>$table-&gt;string('name,100');</t>
+  </si>
+  <si>
+    <t>$table-&gt;string('fullName,100');</t>
+  </si>
+  <si>
+    <t>$table-&gt;string('image,100');</t>
+  </si>
+  <si>
+    <t>$table-&gt;foreignId('teacher_id)-&gt;constrained('teachers');</t>
+  </si>
+  <si>
+    <t>$table-&gt;string('phone,50');</t>
+  </si>
+  <si>
+    <t>$table-&gt;string('facebook');</t>
+  </si>
+  <si>
+    <t>$table-&gt;string('twitter');</t>
+  </si>
+  <si>
+    <t>$table-&gt;string('instagram');</t>
+  </si>
+  <si>
+    <t>class_id</t>
+  </si>
+  <si>
+    <t>$table-&gt;foreignId('class_id)-&gt;constrained('classes');</t>
+  </si>
+  <si>
+    <t>$table-&gt;unsignedInteger('age');</t>
+  </si>
+  <si>
+    <t>I want to calaulate it from birthDate</t>
+  </si>
+  <si>
+    <t>$table-&gt;string('gurdianName,100');</t>
+  </si>
+  <si>
+    <t>gurdian name</t>
+  </si>
+  <si>
+    <t>gurdian_id</t>
+  </si>
+  <si>
+    <t>$table-&gt;foreignId('gurdian_id)-&gt;constrained('gurdians');</t>
+  </si>
+  <si>
+    <t>gurdians</t>
+  </si>
+  <si>
+    <t>childerns</t>
+  </si>
+  <si>
+    <t>$table-&gt;string('relationToChildern,100');</t>
+  </si>
+  <si>
+    <t>childern_id</t>
+  </si>
+  <si>
+    <t>$table-&gt;foreignId('childern_id)-&gt;constrained('childern');</t>
+  </si>
+  <si>
+    <t>$table-&gt;string('email,100');</t>
+  </si>
+  <si>
+    <t>$table-&gt;text('appointment,100');</t>
+  </si>
+  <si>
+    <t>$table-&gt;text('description,100');</t>
+  </si>
+  <si>
     <t>childern</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>parent name</t>
-  </si>
-  <si>
-    <t>relation to childern</t>
-  </si>
-  <si>
-    <t>childern name</t>
-  </si>
-  <si>
-    <t>gurdian</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>appointment</t>
+    <t>M</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,16 +198,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -128,83 +242,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,27 +558,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H29"/>
+  <dimension ref="A2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" ht="26.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -527,139 +586,376 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="30.75" customHeight="1">
+    <row r="3" spans="1:9" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="26.25">
+      <c r="A13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="26.25">
+      <c r="A19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="4" t="s">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="26.25">
+      <c r="A29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26.25">
+      <c r="A36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="C23" t="s">
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30">
-      <c r="A29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>26</v>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A10:D10"/>
+  <mergeCells count="5">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="57">
   <si>
     <t>classes</t>
   </si>
@@ -184,6 +185,9 @@
   </si>
   <si>
     <t>2nd</t>
+  </si>
+  <si>
+    <t>kiderClasses</t>
   </si>
 </sst>
 </file>
@@ -257,12 +261,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I44"/>
+  <dimension ref="A2:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -575,10 +579,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="26.25">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8"/>
+      <c r="A2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="10"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -665,10 +669,10 @@
       <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="26.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="H13" t="s">
@@ -729,10 +733,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="26.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="10"/>
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -816,10 +820,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="26.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="10"/>
       <c r="C29" t="s">
         <v>55</v>
       </c>
@@ -867,15 +871,397 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="35" spans="1:2" ht="26.25">
+      <c r="A35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A35:B35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="26.25">
+      <c r="A2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="26.25">
+      <c r="A13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="26.25">
+      <c r="A19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="26.25">
+      <c r="A29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
@@ -883,10 +1269,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="26.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
@@ -905,7 +1291,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B39" t="s">
@@ -913,7 +1299,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B40" t="s">
@@ -962,7 +1348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -974,7 +1360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
   <si>
     <t>classes</t>
   </si>
@@ -562,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I41"/>
+  <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -661,7 +661,7 @@
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -870,62 +870,54 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="26.25">
-      <c r="A35" s="10" t="s">
+    <row r="34" spans="1:2" ht="26.25">
+      <c r="A34" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
+      <c r="A40" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -935,7 +927,7 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
